--- a/AAII_Financials/Yearly/CAJPY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CAJPY_YR_FIN.xlsx
@@ -711,25 +711,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>29630900</v>
+        <v>29066500</v>
       </c>
       <c r="E8" s="3">
-        <v>25823200</v>
+        <v>25331300</v>
       </c>
       <c r="F8" s="3">
-        <v>23227800</v>
+        <v>22785400</v>
       </c>
       <c r="G8" s="3">
-        <v>26410700</v>
+        <v>25907700</v>
       </c>
       <c r="H8" s="3">
-        <v>29046700</v>
+        <v>28493500</v>
       </c>
       <c r="I8" s="3">
-        <v>29988100</v>
+        <v>29416900</v>
       </c>
       <c r="J8" s="3">
-        <v>25000900</v>
+        <v>24524700</v>
       </c>
       <c r="K8" s="3"/>
     </row>
@@ -738,25 +738,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>16196500</v>
+        <v>15888000</v>
       </c>
       <c r="E9" s="3">
-        <v>13858900</v>
+        <v>13594900</v>
       </c>
       <c r="F9" s="3">
-        <v>13115200</v>
+        <v>12865300</v>
       </c>
       <c r="G9" s="3">
-        <v>14577000</v>
+        <v>14299300</v>
       </c>
       <c r="H9" s="3">
-        <v>15555400</v>
+        <v>15259100</v>
       </c>
       <c r="I9" s="3">
-        <v>15341800</v>
+        <v>15049600</v>
       </c>
       <c r="J9" s="3">
-        <v>12698300</v>
+        <v>12456400</v>
       </c>
       <c r="K9" s="3"/>
     </row>
@@ -765,25 +765,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>13434300</v>
+        <v>13178500</v>
       </c>
       <c r="E10" s="3">
-        <v>11964300</v>
+        <v>11736400</v>
       </c>
       <c r="F10" s="3">
-        <v>10112600</v>
+        <v>9920000</v>
       </c>
       <c r="G10" s="3">
-        <v>11833700</v>
+        <v>11608300</v>
       </c>
       <c r="H10" s="3">
-        <v>13491300</v>
+        <v>13234300</v>
       </c>
       <c r="I10" s="3">
-        <v>14646300</v>
+        <v>14367300</v>
       </c>
       <c r="J10" s="3">
-        <v>12302700</v>
+        <v>12068300</v>
       </c>
       <c r="K10" s="3"/>
     </row>
@@ -805,25 +805,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2254500</v>
+        <v>2211500</v>
       </c>
       <c r="E12" s="3">
-        <v>2111900</v>
+        <v>2071700</v>
       </c>
       <c r="F12" s="3">
-        <v>2001500</v>
+        <v>1963400</v>
       </c>
       <c r="G12" s="3">
-        <v>2194000</v>
+        <v>2152200</v>
       </c>
       <c r="H12" s="3">
-        <v>2321400</v>
+        <v>2277200</v>
       </c>
       <c r="I12" s="3">
-        <v>2425900</v>
+        <v>2379700</v>
       </c>
       <c r="J12" s="3">
-        <v>2222500</v>
+        <v>2180100</v>
       </c>
       <c r="K12" s="3"/>
     </row>
@@ -874,7 +874,7 @@
         <v>10</v>
       </c>
       <c r="I14" s="3">
-        <v>249300</v>
+        <v>244500</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>10</v>
@@ -923,25 +923,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>27033400</v>
+        <v>26518500</v>
       </c>
       <c r="E17" s="3">
-        <v>23751100</v>
+        <v>23298700</v>
       </c>
       <c r="F17" s="3">
-        <v>22415300</v>
+        <v>21988300</v>
       </c>
       <c r="G17" s="3">
-        <v>25128800</v>
+        <v>24650100</v>
       </c>
       <c r="H17" s="3">
-        <v>26526000</v>
+        <v>26020800</v>
       </c>
       <c r="I17" s="3">
-        <v>27551700</v>
+        <v>27026900</v>
       </c>
       <c r="J17" s="3">
-        <v>23318800</v>
+        <v>22874600</v>
       </c>
       <c r="K17" s="3"/>
     </row>
@@ -950,25 +950,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2597500</v>
+        <v>2548000</v>
       </c>
       <c r="E18" s="3">
-        <v>2072100</v>
+        <v>2032600</v>
       </c>
       <c r="F18" s="3">
-        <v>812500</v>
+        <v>797000</v>
       </c>
       <c r="G18" s="3">
-        <v>1282000</v>
+        <v>1257600</v>
       </c>
       <c r="H18" s="3">
-        <v>2520700</v>
+        <v>2472700</v>
       </c>
       <c r="I18" s="3">
-        <v>2436400</v>
+        <v>2390000</v>
       </c>
       <c r="J18" s="3">
-        <v>1682200</v>
+        <v>1650100</v>
       </c>
       <c r="K18" s="3"/>
     </row>
@@ -993,22 +993,22 @@
         <v>600</v>
       </c>
       <c r="E20" s="3">
-        <v>157500</v>
+        <v>154500</v>
       </c>
       <c r="F20" s="3">
-        <v>151300</v>
+        <v>148400</v>
       </c>
       <c r="G20" s="3">
-        <v>162500</v>
+        <v>159400</v>
       </c>
       <c r="H20" s="3">
-        <v>152400</v>
+        <v>149500</v>
       </c>
       <c r="I20" s="3">
-        <v>170700</v>
+        <v>167400</v>
       </c>
       <c r="J20" s="3">
-        <v>123800</v>
+        <v>121500</v>
       </c>
       <c r="K20" s="3"/>
     </row>
@@ -1017,25 +1017,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4247000</v>
+        <v>4193000</v>
       </c>
       <c r="E21" s="3">
-        <v>3840300</v>
+        <v>3793400</v>
       </c>
       <c r="F21" s="3">
-        <v>2622400</v>
+        <v>2599500</v>
       </c>
       <c r="G21" s="3">
-        <v>3172200</v>
+        <v>3140000</v>
       </c>
       <c r="H21" s="3">
-        <v>4504400</v>
+        <v>4448500</v>
       </c>
       <c r="I21" s="3">
-        <v>4513600</v>
+        <v>4458700</v>
       </c>
       <c r="J21" s="3">
-        <v>3626700</v>
+        <v>3587300</v>
       </c>
       <c r="K21" s="3"/>
     </row>
@@ -1044,25 +1044,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>7700</v>
+        <v>7500</v>
       </c>
       <c r="E22" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="F22" s="3">
-        <v>6300</v>
+        <v>6200</v>
       </c>
       <c r="G22" s="3">
+        <v>7500</v>
+      </c>
+      <c r="H22" s="3">
+        <v>5700</v>
+      </c>
+      <c r="I22" s="3">
+        <v>5900</v>
+      </c>
+      <c r="J22" s="3">
         <v>7600</v>
-      </c>
-      <c r="H22" s="3">
-        <v>5900</v>
-      </c>
-      <c r="I22" s="3">
-        <v>6000</v>
-      </c>
-      <c r="J22" s="3">
-        <v>7800</v>
       </c>
       <c r="K22" s="3"/>
     </row>
@@ -1071,25 +1071,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2590400</v>
+        <v>2541100</v>
       </c>
       <c r="E23" s="3">
-        <v>2224900</v>
+        <v>2182500</v>
       </c>
       <c r="F23" s="3">
-        <v>957600</v>
+        <v>939300</v>
       </c>
       <c r="G23" s="3">
-        <v>1436900</v>
+        <v>1409500</v>
       </c>
       <c r="H23" s="3">
-        <v>2667300</v>
+        <v>2616500</v>
       </c>
       <c r="I23" s="3">
-        <v>2601000</v>
+        <v>2551500</v>
       </c>
       <c r="J23" s="3">
-        <v>1798200</v>
+        <v>1763900</v>
       </c>
       <c r="K23" s="3"/>
     </row>
@@ -1098,25 +1098,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>678800</v>
+        <v>665900</v>
       </c>
       <c r="E24" s="3">
-        <v>528200</v>
+        <v>518200</v>
       </c>
       <c r="F24" s="3">
-        <v>252400</v>
+        <v>247600</v>
       </c>
       <c r="G24" s="3">
-        <v>412700</v>
+        <v>404800</v>
       </c>
       <c r="H24" s="3">
-        <v>706700</v>
+        <v>693200</v>
       </c>
       <c r="I24" s="3">
-        <v>720500</v>
+        <v>706800</v>
       </c>
       <c r="J24" s="3">
-        <v>607700</v>
+        <v>596100</v>
       </c>
       <c r="K24" s="3"/>
     </row>
@@ -1152,25 +1152,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1911600</v>
+        <v>1875200</v>
       </c>
       <c r="E26" s="3">
-        <v>1696700</v>
+        <v>1664400</v>
       </c>
       <c r="F26" s="3">
-        <v>705200</v>
+        <v>691700</v>
       </c>
       <c r="G26" s="3">
-        <v>1024200</v>
+        <v>1004700</v>
       </c>
       <c r="H26" s="3">
-        <v>1960600</v>
+        <v>1923200</v>
       </c>
       <c r="I26" s="3">
-        <v>1880600</v>
+        <v>1844800</v>
       </c>
       <c r="J26" s="3">
-        <v>1190500</v>
+        <v>1167800</v>
       </c>
       <c r="K26" s="3"/>
     </row>
@@ -1179,25 +1179,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1793100</v>
+        <v>1759000</v>
       </c>
       <c r="E27" s="3">
-        <v>1578200</v>
+        <v>1548100</v>
       </c>
       <c r="F27" s="3">
-        <v>612400</v>
+        <v>600700</v>
       </c>
       <c r="G27" s="3">
-        <v>918500</v>
+        <v>901000</v>
       </c>
       <c r="H27" s="3">
-        <v>1857700</v>
+        <v>1822400</v>
       </c>
       <c r="I27" s="3">
-        <v>1778100</v>
+        <v>1744300</v>
       </c>
       <c r="J27" s="3">
-        <v>1107300</v>
+        <v>1086200</v>
       </c>
       <c r="K27" s="3"/>
     </row>
@@ -1317,22 +1317,22 @@
         <v>-600</v>
       </c>
       <c r="E32" s="3">
-        <v>-157500</v>
+        <v>-154500</v>
       </c>
       <c r="F32" s="3">
-        <v>-151300</v>
+        <v>-148400</v>
       </c>
       <c r="G32" s="3">
-        <v>-162500</v>
+        <v>-159400</v>
       </c>
       <c r="H32" s="3">
-        <v>-152400</v>
+        <v>-149500</v>
       </c>
       <c r="I32" s="3">
-        <v>-170700</v>
+        <v>-167400</v>
       </c>
       <c r="J32" s="3">
-        <v>-123800</v>
+        <v>-121500</v>
       </c>
       <c r="K32" s="3"/>
     </row>
@@ -1341,25 +1341,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1793100</v>
+        <v>1759000</v>
       </c>
       <c r="E33" s="3">
-        <v>1578200</v>
+        <v>1548100</v>
       </c>
       <c r="F33" s="3">
-        <v>612400</v>
+        <v>600700</v>
       </c>
       <c r="G33" s="3">
-        <v>918500</v>
+        <v>901000</v>
       </c>
       <c r="H33" s="3">
-        <v>1857700</v>
+        <v>1822400</v>
       </c>
       <c r="I33" s="3">
-        <v>1778100</v>
+        <v>1744300</v>
       </c>
       <c r="J33" s="3">
-        <v>1107300</v>
+        <v>1086200</v>
       </c>
       <c r="K33" s="3"/>
     </row>
@@ -1395,25 +1395,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1793100</v>
+        <v>1759000</v>
       </c>
       <c r="E35" s="3">
-        <v>1578200</v>
+        <v>1548100</v>
       </c>
       <c r="F35" s="3">
-        <v>612400</v>
+        <v>600700</v>
       </c>
       <c r="G35" s="3">
-        <v>918500</v>
+        <v>901000</v>
       </c>
       <c r="H35" s="3">
-        <v>1857700</v>
+        <v>1822400</v>
       </c>
       <c r="I35" s="3">
-        <v>1778100</v>
+        <v>1744300</v>
       </c>
       <c r="J35" s="3">
-        <v>1107300</v>
+        <v>1086200</v>
       </c>
       <c r="K35" s="3"/>
     </row>
@@ -1480,25 +1480,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2661400</v>
+        <v>2610700</v>
       </c>
       <c r="E41" s="3">
-        <v>2950300</v>
+        <v>2894100</v>
       </c>
       <c r="F41" s="3">
-        <v>2996500</v>
+        <v>2939400</v>
       </c>
       <c r="G41" s="3">
-        <v>3034200</v>
+        <v>2976400</v>
       </c>
       <c r="H41" s="3">
-        <v>3826700</v>
+        <v>3753900</v>
       </c>
       <c r="I41" s="3">
-        <v>5305300</v>
+        <v>5204300</v>
       </c>
       <c r="J41" s="3">
-        <v>4631900</v>
+        <v>4543700</v>
       </c>
       <c r="K41" s="3"/>
     </row>
@@ -1507,25 +1507,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>80200</v>
+        <v>78600</v>
       </c>
       <c r="E42" s="3">
-        <v>24800</v>
+        <v>24300</v>
       </c>
       <c r="F42" s="3">
         <v>500</v>
       </c>
       <c r="G42" s="3">
-        <v>13000</v>
+        <v>12700</v>
       </c>
       <c r="H42" s="3">
-        <v>7000</v>
+        <v>6900</v>
       </c>
       <c r="I42" s="3">
-        <v>14400</v>
+        <v>14200</v>
       </c>
       <c r="J42" s="3">
-        <v>23600</v>
+        <v>23100</v>
       </c>
       <c r="K42" s="3"/>
     </row>
@@ -1534,25 +1534,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4568500</v>
+        <v>5469500</v>
       </c>
       <c r="E43" s="3">
-        <v>3737600</v>
+        <v>3666400</v>
       </c>
       <c r="F43" s="3">
-        <v>3933200</v>
+        <v>3858300</v>
       </c>
       <c r="G43" s="3">
-        <v>4114800</v>
+        <v>4036400</v>
       </c>
       <c r="H43" s="3">
-        <v>4505200</v>
+        <v>4419400</v>
       </c>
       <c r="I43" s="3">
-        <v>4783900</v>
+        <v>4692800</v>
       </c>
       <c r="J43" s="3">
-        <v>4714700</v>
+        <v>4624900</v>
       </c>
       <c r="K43" s="3"/>
     </row>
@@ -1561,25 +1561,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5941100</v>
+        <v>5827900</v>
       </c>
       <c r="E44" s="3">
-        <v>4781700</v>
+        <v>4690600</v>
       </c>
       <c r="F44" s="3">
-        <v>4136600</v>
+        <v>4057800</v>
       </c>
       <c r="G44" s="3">
-        <v>4298000</v>
+        <v>4216100</v>
       </c>
       <c r="H44" s="3">
-        <v>4492900</v>
+        <v>4407300</v>
       </c>
       <c r="I44" s="3">
-        <v>4189700</v>
+        <v>4109900</v>
       </c>
       <c r="J44" s="3">
-        <v>4121400</v>
+        <v>4042900</v>
       </c>
       <c r="K44" s="3"/>
     </row>
@@ -1588,25 +1588,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2594800</v>
+        <v>1557300</v>
       </c>
       <c r="E45" s="3">
-        <v>2311500</v>
+        <v>2267500</v>
       </c>
       <c r="F45" s="3">
-        <v>2083400</v>
+        <v>2043700</v>
       </c>
       <c r="G45" s="3">
-        <v>2107900</v>
+        <v>2067800</v>
       </c>
       <c r="H45" s="3">
-        <v>2236900</v>
+        <v>2194300</v>
       </c>
       <c r="I45" s="3">
-        <v>2116500</v>
+        <v>2076200</v>
       </c>
       <c r="J45" s="3">
-        <v>1941500</v>
+        <v>1904600</v>
       </c>
       <c r="K45" s="3"/>
     </row>
@@ -1615,25 +1615,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>15846000</v>
+        <v>15544100</v>
       </c>
       <c r="E46" s="3">
-        <v>13805800</v>
+        <v>13542900</v>
       </c>
       <c r="F46" s="3">
-        <v>13150200</v>
+        <v>12899700</v>
       </c>
       <c r="G46" s="3">
-        <v>13567800</v>
+        <v>13309400</v>
       </c>
       <c r="H46" s="3">
-        <v>15068800</v>
+        <v>14781800</v>
       </c>
       <c r="I46" s="3">
-        <v>16410000</v>
+        <v>16097400</v>
       </c>
       <c r="J46" s="3">
-        <v>15433100</v>
+        <v>15139200</v>
       </c>
       <c r="K46" s="3"/>
     </row>
@@ -1642,25 +1642,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>547300</v>
+        <v>2286700</v>
       </c>
       <c r="E47" s="3">
-        <v>264900</v>
+        <v>259900</v>
       </c>
       <c r="F47" s="3">
-        <v>271300</v>
+        <v>266100</v>
       </c>
       <c r="G47" s="3">
-        <v>272900</v>
+        <v>267700</v>
       </c>
       <c r="H47" s="3">
-        <v>290600</v>
+        <v>285100</v>
       </c>
       <c r="I47" s="3">
-        <v>411200</v>
+        <v>403300</v>
       </c>
       <c r="J47" s="3">
-        <v>373500</v>
+        <v>366300</v>
       </c>
       <c r="K47" s="3"/>
     </row>
@@ -1669,25 +1669,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8473900</v>
+        <v>8312500</v>
       </c>
       <c r="E48" s="3">
-        <v>8358400</v>
+        <v>8199200</v>
       </c>
       <c r="F48" s="3">
-        <v>8416100</v>
+        <v>8255700</v>
       </c>
       <c r="G48" s="3">
-        <v>8850100</v>
+        <v>8681500</v>
       </c>
       <c r="H48" s="3">
-        <v>8018800</v>
+        <v>7866100</v>
       </c>
       <c r="I48" s="3">
-        <v>8280700</v>
+        <v>8122900</v>
       </c>
       <c r="J48" s="3">
-        <v>8783100</v>
+        <v>8615800</v>
       </c>
       <c r="K48" s="3"/>
     </row>
@@ -1696,25 +1696,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>9214100</v>
+        <v>9038600</v>
       </c>
       <c r="E49" s="3">
-        <v>9229000</v>
+        <v>9053200</v>
       </c>
       <c r="F49" s="3">
-        <v>9070300</v>
+        <v>8897600</v>
       </c>
       <c r="G49" s="3">
-        <v>9162400</v>
+        <v>8987900</v>
       </c>
       <c r="H49" s="3">
-        <v>9551600</v>
+        <v>9369600</v>
       </c>
       <c r="I49" s="3">
-        <v>9979100</v>
+        <v>9789000</v>
       </c>
       <c r="J49" s="3">
-        <v>10162800</v>
+        <v>9969200</v>
       </c>
       <c r="K49" s="3"/>
     </row>
@@ -1777,25 +1777,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3370900</v>
+        <v>1556800</v>
       </c>
       <c r="E52" s="3">
-        <v>3260900</v>
+        <v>3198800</v>
       </c>
       <c r="F52" s="3">
-        <v>3090400</v>
+        <v>3031500</v>
       </c>
       <c r="G52" s="3">
-        <v>3220500</v>
+        <v>3159100</v>
       </c>
       <c r="H52" s="3">
-        <v>3081300</v>
+        <v>3022600</v>
       </c>
       <c r="I52" s="3">
-        <v>3126600</v>
+        <v>3067000</v>
       </c>
       <c r="J52" s="3">
-        <v>3015700</v>
+        <v>2958300</v>
       </c>
       <c r="K52" s="3"/>
     </row>
@@ -1831,25 +1831,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>37452100</v>
+        <v>36738800</v>
       </c>
       <c r="E54" s="3">
-        <v>34919000</v>
+        <v>34253900</v>
       </c>
       <c r="F54" s="3">
-        <v>33998300</v>
+        <v>33350700</v>
       </c>
       <c r="G54" s="3">
-        <v>35073600</v>
+        <v>34405500</v>
       </c>
       <c r="H54" s="3">
-        <v>36011100</v>
+        <v>35325100</v>
       </c>
       <c r="I54" s="3">
-        <v>38207400</v>
+        <v>37479700</v>
       </c>
       <c r="J54" s="3">
-        <v>37768200</v>
+        <v>37048800</v>
       </c>
       <c r="K54" s="3"/>
     </row>
@@ -1884,25 +1884,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2616100</v>
+        <v>2566300</v>
       </c>
       <c r="E57" s="3">
-        <v>2488700</v>
+        <v>2441300</v>
       </c>
       <c r="F57" s="3">
-        <v>2233000</v>
+        <v>2190500</v>
       </c>
       <c r="G57" s="3">
-        <v>2244000</v>
+        <v>2201300</v>
       </c>
       <c r="H57" s="3">
-        <v>2590800</v>
+        <v>2541400</v>
       </c>
       <c r="I57" s="3">
-        <v>2797800</v>
+        <v>2744500</v>
       </c>
       <c r="J57" s="3">
-        <v>2736200</v>
+        <v>2684100</v>
       </c>
       <c r="K57" s="3"/>
     </row>
@@ -1911,25 +1911,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2178400</v>
+        <v>2136900</v>
       </c>
       <c r="E58" s="3">
-        <v>329900</v>
+        <v>323700</v>
       </c>
       <c r="F58" s="3">
-        <v>2882900</v>
+        <v>2828000</v>
       </c>
       <c r="G58" s="3">
-        <v>308900</v>
+        <v>303100</v>
       </c>
       <c r="H58" s="3">
-        <v>283200</v>
+        <v>277800</v>
       </c>
       <c r="I58" s="3">
-        <v>289100</v>
+        <v>283600</v>
       </c>
       <c r="J58" s="3">
-        <v>13600</v>
+        <v>13300</v>
       </c>
       <c r="K58" s="3"/>
     </row>
@@ -1938,25 +1938,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5240800</v>
+        <v>5141000</v>
       </c>
       <c r="E59" s="3">
-        <v>4978400</v>
+        <v>4883600</v>
       </c>
       <c r="F59" s="3">
-        <v>4631600</v>
+        <v>4543300</v>
       </c>
       <c r="G59" s="3">
-        <v>4591200</v>
+        <v>4503800</v>
       </c>
       <c r="H59" s="3">
-        <v>4694000</v>
+        <v>4604600</v>
       </c>
       <c r="I59" s="3">
-        <v>5067800</v>
+        <v>4971300</v>
       </c>
       <c r="J59" s="3">
-        <v>4478000</v>
+        <v>4392700</v>
       </c>
       <c r="K59" s="3"/>
     </row>
@@ -1965,25 +1965,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>10035300</v>
+        <v>9844200</v>
       </c>
       <c r="E60" s="3">
-        <v>7797100</v>
+        <v>7648600</v>
       </c>
       <c r="F60" s="3">
-        <v>9747500</v>
+        <v>9561800</v>
       </c>
       <c r="G60" s="3">
-        <v>7144200</v>
+        <v>7008100</v>
       </c>
       <c r="H60" s="3">
-        <v>7568000</v>
+        <v>7423800</v>
       </c>
       <c r="I60" s="3">
-        <v>8154700</v>
+        <v>7999400</v>
       </c>
       <c r="J60" s="3">
-        <v>7227800</v>
+        <v>7090100</v>
       </c>
       <c r="K60" s="3"/>
     </row>
@@ -1992,25 +1992,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>17800</v>
+        <v>17400</v>
       </c>
       <c r="E61" s="3">
-        <v>1321200</v>
+        <v>1296000</v>
       </c>
       <c r="F61" s="3">
-        <v>35500</v>
+        <v>34900</v>
       </c>
       <c r="G61" s="3">
-        <v>2626400</v>
+        <v>2576400</v>
       </c>
       <c r="H61" s="3">
-        <v>2660400</v>
+        <v>2609700</v>
       </c>
       <c r="I61" s="3">
-        <v>3625300</v>
+        <v>3556200</v>
       </c>
       <c r="J61" s="3">
-        <v>4493000</v>
+        <v>4407400</v>
       </c>
       <c r="K61" s="3"/>
     </row>
@@ -2019,25 +2019,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2783700</v>
+        <v>2730600</v>
       </c>
       <c r="E62" s="3">
-        <v>3027300</v>
+        <v>2969600</v>
       </c>
       <c r="F62" s="3">
-        <v>3752500</v>
+        <v>3681100</v>
       </c>
       <c r="G62" s="3">
-        <v>4105700</v>
+        <v>4027500</v>
       </c>
       <c r="H62" s="3">
-        <v>3601000</v>
+        <v>3532400</v>
       </c>
       <c r="I62" s="3">
-        <v>3670600</v>
+        <v>3600700</v>
       </c>
       <c r="J62" s="3">
-        <v>4037000</v>
+        <v>3960100</v>
       </c>
       <c r="K62" s="3"/>
     </row>
@@ -2127,25 +2127,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>14570800</v>
+        <v>14293300</v>
       </c>
       <c r="E66" s="3">
-        <v>13796800</v>
+        <v>13534000</v>
       </c>
       <c r="F66" s="3">
-        <v>15071800</v>
+        <v>14784700</v>
       </c>
       <c r="G66" s="3">
-        <v>15335200</v>
+        <v>15043100</v>
       </c>
       <c r="H66" s="3">
-        <v>15228200</v>
+        <v>14938100</v>
       </c>
       <c r="I66" s="3">
-        <v>17108300</v>
+        <v>16782400</v>
       </c>
       <c r="J66" s="3">
-        <v>17312200</v>
+        <v>16982400</v>
       </c>
       <c r="K66" s="3"/>
     </row>
@@ -2275,25 +2275,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>27409900</v>
+        <v>26887800</v>
       </c>
       <c r="E72" s="3">
-        <v>26504500</v>
+        <v>25999600</v>
       </c>
       <c r="F72" s="3">
-        <v>25569200</v>
+        <v>25082200</v>
       </c>
       <c r="G72" s="3">
-        <v>25891500</v>
+        <v>25398300</v>
       </c>
       <c r="H72" s="3">
-        <v>26283800</v>
+        <v>25783100</v>
       </c>
       <c r="I72" s="3">
-        <v>25697000</v>
+        <v>25207500</v>
       </c>
       <c r="J72" s="3">
-        <v>25117100</v>
+        <v>24638600</v>
       </c>
       <c r="K72" s="3"/>
     </row>
@@ -2383,25 +2383,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>22881300</v>
+        <v>22445500</v>
       </c>
       <c r="E76" s="3">
-        <v>21122200</v>
+        <v>20719900</v>
       </c>
       <c r="F76" s="3">
-        <v>18926500</v>
+        <v>18566000</v>
       </c>
       <c r="G76" s="3">
-        <v>19738400</v>
+        <v>19362400</v>
       </c>
       <c r="H76" s="3">
-        <v>20782900</v>
+        <v>20387000</v>
       </c>
       <c r="I76" s="3">
-        <v>21099100</v>
+        <v>20697200</v>
       </c>
       <c r="J76" s="3">
-        <v>20456000</v>
+        <v>20066400</v>
       </c>
       <c r="K76" s="3"/>
     </row>
@@ -2469,25 +2469,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1793100</v>
+        <v>1759000</v>
       </c>
       <c r="E81" s="3">
-        <v>1578200</v>
+        <v>1548100</v>
       </c>
       <c r="F81" s="3">
-        <v>612400</v>
+        <v>600700</v>
       </c>
       <c r="G81" s="3">
-        <v>918500</v>
+        <v>901000</v>
       </c>
       <c r="H81" s="3">
-        <v>1857700</v>
+        <v>1822400</v>
       </c>
       <c r="I81" s="3">
-        <v>1778100</v>
+        <v>1744300</v>
       </c>
       <c r="J81" s="3">
-        <v>1107300</v>
+        <v>1086200</v>
       </c>
       <c r="K81" s="3"/>
     </row>
@@ -2509,25 +2509,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1664700</v>
+        <v>1633000</v>
       </c>
       <c r="E83" s="3">
-        <v>1626200</v>
+        <v>1595200</v>
       </c>
       <c r="F83" s="3">
-        <v>1674500</v>
+        <v>1642600</v>
       </c>
       <c r="G83" s="3">
-        <v>1744400</v>
+        <v>1711100</v>
       </c>
       <c r="H83" s="3">
-        <v>1848900</v>
+        <v>1813700</v>
       </c>
       <c r="I83" s="3">
-        <v>1924800</v>
+        <v>1888200</v>
       </c>
       <c r="J83" s="3">
-        <v>1838200</v>
+        <v>1803200</v>
       </c>
       <c r="K83" s="3"/>
     </row>
@@ -2671,25 +2671,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1930100</v>
+        <v>1893400</v>
       </c>
       <c r="E89" s="3">
-        <v>3315100</v>
+        <v>3251900</v>
       </c>
       <c r="F89" s="3">
-        <v>2453500</v>
+        <v>2406700</v>
       </c>
       <c r="G89" s="3">
-        <v>2634700</v>
+        <v>2584500</v>
       </c>
       <c r="H89" s="3">
-        <v>2684900</v>
+        <v>2633800</v>
       </c>
       <c r="I89" s="3">
-        <v>4340600</v>
+        <v>4257900</v>
       </c>
       <c r="J89" s="3">
-        <v>3677100</v>
+        <v>3607000</v>
       </c>
       <c r="K89" s="3"/>
     </row>
@@ -2711,25 +2711,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1385700</v>
+        <v>-1359300</v>
       </c>
       <c r="E91" s="3">
-        <v>-1303500</v>
+        <v>-1278700</v>
       </c>
       <c r="F91" s="3">
-        <v>-1210700</v>
+        <v>-1187600</v>
       </c>
       <c r="G91" s="3">
-        <v>-1585200</v>
+        <v>-1555000</v>
       </c>
       <c r="H91" s="3">
-        <v>-1406800</v>
+        <v>-1380000</v>
       </c>
       <c r="I91" s="3">
-        <v>-1392700</v>
+        <v>-1366200</v>
       </c>
       <c r="J91" s="3">
-        <v>-1521200</v>
+        <v>-1492300</v>
       </c>
       <c r="K91" s="3"/>
     </row>
@@ -2792,25 +2792,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1329000</v>
+        <v>-1303700</v>
       </c>
       <c r="E94" s="3">
-        <v>-1523300</v>
+        <v>-1494300</v>
       </c>
       <c r="F94" s="3">
-        <v>-1142500</v>
+        <v>-1120700</v>
       </c>
       <c r="G94" s="3">
-        <v>-1680000</v>
+        <v>-1648000</v>
       </c>
       <c r="H94" s="3">
-        <v>-1437800</v>
+        <v>-1410400</v>
       </c>
       <c r="I94" s="3">
-        <v>-1212800</v>
+        <v>-1189700</v>
       </c>
       <c r="J94" s="3">
-        <v>-6152900</v>
+        <v>-6035700</v>
       </c>
       <c r="K94" s="3"/>
     </row>
@@ -2832,25 +2832,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-877000</v>
+        <v>-860300</v>
       </c>
       <c r="E96" s="3">
-        <v>-653300</v>
+        <v>-640900</v>
       </c>
       <c r="F96" s="3">
-        <v>-933000</v>
+        <v>-915200</v>
       </c>
       <c r="G96" s="3">
-        <v>-1260400</v>
+        <v>-1236400</v>
       </c>
       <c r="H96" s="3">
-        <v>-1309500</v>
+        <v>-1284500</v>
       </c>
       <c r="I96" s="3">
-        <v>-1197200</v>
+        <v>-1174400</v>
       </c>
       <c r="J96" s="3">
-        <v>-1204000</v>
+        <v>-1181100</v>
       </c>
       <c r="K96" s="3"/>
     </row>
@@ -2940,25 +2940,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1079300</v>
+        <v>-1058700</v>
       </c>
       <c r="E100" s="3">
-        <v>-1965100</v>
+        <v>-1927700</v>
       </c>
       <c r="F100" s="3">
-        <v>-1348400</v>
+        <v>-1322700</v>
       </c>
       <c r="G100" s="3">
-        <v>-1709500</v>
+        <v>-1677000</v>
       </c>
       <c r="H100" s="3">
-        <v>-2608000</v>
+        <v>-2558300</v>
       </c>
       <c r="I100" s="3">
-        <v>-2502400</v>
+        <v>-2454700</v>
       </c>
       <c r="J100" s="3">
-        <v>2614300</v>
+        <v>2564500</v>
       </c>
       <c r="K100" s="3"/>
     </row>
@@ -2967,25 +2967,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>189400</v>
+        <v>185800</v>
       </c>
       <c r="E101" s="3">
-        <v>127200</v>
+        <v>124800</v>
       </c>
       <c r="F101" s="3">
         <v>-300</v>
       </c>
       <c r="G101" s="3">
-        <v>-37700</v>
+        <v>-37000</v>
       </c>
       <c r="H101" s="3">
-        <v>-117700</v>
+        <v>-115500</v>
       </c>
       <c r="I101" s="3">
-        <v>48100</v>
+        <v>47100</v>
       </c>
       <c r="J101" s="3">
-        <v>-163700</v>
+        <v>-160600</v>
       </c>
       <c r="K101" s="3"/>
     </row>
@@ -2994,25 +2994,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-288800</v>
+        <v>-283300</v>
       </c>
       <c r="E102" s="3">
-        <v>-46200</v>
+        <v>-45300</v>
       </c>
       <c r="F102" s="3">
-        <v>-37700</v>
+        <v>-37000</v>
       </c>
       <c r="G102" s="3">
-        <v>-792600</v>
+        <v>-777500</v>
       </c>
       <c r="H102" s="3">
-        <v>-1478600</v>
+        <v>-1450400</v>
       </c>
       <c r="I102" s="3">
-        <v>673400</v>
+        <v>660600</v>
       </c>
       <c r="J102" s="3">
-        <v>-25100</v>
+        <v>-24700</v>
       </c>
       <c r="K102" s="3"/>
     </row>

--- a/AAII_Financials/Yearly/CAJPY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CAJPY_YR_FIN.xlsx
@@ -711,25 +711,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>29066500</v>
+        <v>27695800</v>
       </c>
       <c r="E8" s="3">
-        <v>25331300</v>
+        <v>24136800</v>
       </c>
       <c r="F8" s="3">
-        <v>22785400</v>
+        <v>21710900</v>
       </c>
       <c r="G8" s="3">
-        <v>25907700</v>
+        <v>24686000</v>
       </c>
       <c r="H8" s="3">
-        <v>28493500</v>
+        <v>27149800</v>
       </c>
       <c r="I8" s="3">
-        <v>29416900</v>
+        <v>28029700</v>
       </c>
       <c r="J8" s="3">
-        <v>24524700</v>
+        <v>23368200</v>
       </c>
       <c r="K8" s="3"/>
     </row>
@@ -738,25 +738,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>15888000</v>
+        <v>15138800</v>
       </c>
       <c r="E9" s="3">
-        <v>13594900</v>
+        <v>12953800</v>
       </c>
       <c r="F9" s="3">
-        <v>12865300</v>
+        <v>12258700</v>
       </c>
       <c r="G9" s="3">
-        <v>14299300</v>
+        <v>13625000</v>
       </c>
       <c r="H9" s="3">
-        <v>15259100</v>
+        <v>14539600</v>
       </c>
       <c r="I9" s="3">
-        <v>15049600</v>
+        <v>14339900</v>
       </c>
       <c r="J9" s="3">
-        <v>12456400</v>
+        <v>11869000</v>
       </c>
       <c r="K9" s="3"/>
     </row>
@@ -765,25 +765,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>13178500</v>
+        <v>12557000</v>
       </c>
       <c r="E10" s="3">
-        <v>11736400</v>
+        <v>11182900</v>
       </c>
       <c r="F10" s="3">
-        <v>9920000</v>
+        <v>9452200</v>
       </c>
       <c r="G10" s="3">
-        <v>11608300</v>
+        <v>11060900</v>
       </c>
       <c r="H10" s="3">
-        <v>13234300</v>
+        <v>12610300</v>
       </c>
       <c r="I10" s="3">
-        <v>14367300</v>
+        <v>13689800</v>
       </c>
       <c r="J10" s="3">
-        <v>12068300</v>
+        <v>11499200</v>
       </c>
       <c r="K10" s="3"/>
     </row>
@@ -805,25 +805,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2211500</v>
+        <v>2107200</v>
       </c>
       <c r="E12" s="3">
-        <v>2071700</v>
+        <v>1974000</v>
       </c>
       <c r="F12" s="3">
-        <v>1963400</v>
+        <v>1870800</v>
       </c>
       <c r="G12" s="3">
-        <v>2152200</v>
+        <v>2050700</v>
       </c>
       <c r="H12" s="3">
-        <v>2277200</v>
+        <v>2169800</v>
       </c>
       <c r="I12" s="3">
-        <v>2379700</v>
+        <v>2267500</v>
       </c>
       <c r="J12" s="3">
-        <v>2180100</v>
+        <v>2077300</v>
       </c>
       <c r="K12" s="3"/>
     </row>
@@ -874,7 +874,7 @@
         <v>10</v>
       </c>
       <c r="I14" s="3">
-        <v>244500</v>
+        <v>233000</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>10</v>
@@ -923,25 +923,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>26518500</v>
+        <v>25268000</v>
       </c>
       <c r="E17" s="3">
-        <v>23298700</v>
+        <v>22200000</v>
       </c>
       <c r="F17" s="3">
-        <v>21988300</v>
+        <v>20951400</v>
       </c>
       <c r="G17" s="3">
-        <v>24650100</v>
+        <v>23487700</v>
       </c>
       <c r="H17" s="3">
-        <v>26020800</v>
+        <v>24793700</v>
       </c>
       <c r="I17" s="3">
-        <v>27026900</v>
+        <v>25752400</v>
       </c>
       <c r="J17" s="3">
-        <v>22874600</v>
+        <v>21795900</v>
       </c>
       <c r="K17" s="3"/>
     </row>
@@ -950,25 +950,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2548000</v>
+        <v>2427900</v>
       </c>
       <c r="E18" s="3">
-        <v>2032600</v>
+        <v>1936800</v>
       </c>
       <c r="F18" s="3">
-        <v>797000</v>
+        <v>759500</v>
       </c>
       <c r="G18" s="3">
-        <v>1257600</v>
+        <v>1198300</v>
       </c>
       <c r="H18" s="3">
-        <v>2472700</v>
+        <v>2356100</v>
       </c>
       <c r="I18" s="3">
-        <v>2390000</v>
+        <v>2277300</v>
       </c>
       <c r="J18" s="3">
-        <v>1650100</v>
+        <v>1572300</v>
       </c>
       <c r="K18" s="3"/>
     </row>
@@ -993,22 +993,22 @@
         <v>600</v>
       </c>
       <c r="E20" s="3">
-        <v>154500</v>
+        <v>147300</v>
       </c>
       <c r="F20" s="3">
-        <v>148400</v>
+        <v>141400</v>
       </c>
       <c r="G20" s="3">
-        <v>159400</v>
+        <v>151900</v>
       </c>
       <c r="H20" s="3">
-        <v>149500</v>
+        <v>142500</v>
       </c>
       <c r="I20" s="3">
-        <v>167400</v>
+        <v>159500</v>
       </c>
       <c r="J20" s="3">
-        <v>121500</v>
+        <v>115700</v>
       </c>
       <c r="K20" s="3"/>
     </row>
@@ -1017,25 +1017,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4193000</v>
+        <v>3984400</v>
       </c>
       <c r="E21" s="3">
-        <v>3793400</v>
+        <v>3604000</v>
       </c>
       <c r="F21" s="3">
-        <v>2599500</v>
+        <v>2466000</v>
       </c>
       <c r="G21" s="3">
-        <v>3140000</v>
+        <v>2980600</v>
       </c>
       <c r="H21" s="3">
-        <v>4448500</v>
+        <v>4226700</v>
       </c>
       <c r="I21" s="3">
-        <v>4458700</v>
+        <v>4235900</v>
       </c>
       <c r="J21" s="3">
-        <v>3587300</v>
+        <v>3406200</v>
       </c>
       <c r="K21" s="3"/>
     </row>
@@ -1044,25 +1044,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>7500</v>
+        <v>7200</v>
       </c>
       <c r="E22" s="3">
-        <v>4700</v>
+        <v>4400</v>
       </c>
       <c r="F22" s="3">
-        <v>6200</v>
+        <v>5900</v>
       </c>
       <c r="G22" s="3">
-        <v>7500</v>
+        <v>7100</v>
       </c>
       <c r="H22" s="3">
-        <v>5700</v>
+        <v>5500</v>
       </c>
       <c r="I22" s="3">
-        <v>5900</v>
+        <v>5600</v>
       </c>
       <c r="J22" s="3">
-        <v>7600</v>
+        <v>7300</v>
       </c>
       <c r="K22" s="3"/>
     </row>
@@ -1071,25 +1071,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2541100</v>
+        <v>2421300</v>
       </c>
       <c r="E23" s="3">
-        <v>2182500</v>
+        <v>2079600</v>
       </c>
       <c r="F23" s="3">
-        <v>939300</v>
+        <v>895000</v>
       </c>
       <c r="G23" s="3">
-        <v>1409500</v>
+        <v>1343000</v>
       </c>
       <c r="H23" s="3">
-        <v>2616500</v>
+        <v>2493100</v>
       </c>
       <c r="I23" s="3">
-        <v>2551500</v>
+        <v>2431200</v>
       </c>
       <c r="J23" s="3">
-        <v>1763900</v>
+        <v>1680800</v>
       </c>
       <c r="K23" s="3"/>
     </row>
@@ -1098,25 +1098,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>665900</v>
+        <v>634500</v>
       </c>
       <c r="E24" s="3">
-        <v>518200</v>
+        <v>493700</v>
       </c>
       <c r="F24" s="3">
-        <v>247600</v>
+        <v>235900</v>
       </c>
       <c r="G24" s="3">
-        <v>404800</v>
+        <v>385700</v>
       </c>
       <c r="H24" s="3">
-        <v>693200</v>
+        <v>660600</v>
       </c>
       <c r="I24" s="3">
-        <v>706800</v>
+        <v>673400</v>
       </c>
       <c r="J24" s="3">
-        <v>596100</v>
+        <v>568000</v>
       </c>
       <c r="K24" s="3"/>
     </row>
@@ -1152,25 +1152,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1875200</v>
+        <v>1786800</v>
       </c>
       <c r="E26" s="3">
-        <v>1664400</v>
+        <v>1585900</v>
       </c>
       <c r="F26" s="3">
-        <v>691700</v>
+        <v>659100</v>
       </c>
       <c r="G26" s="3">
-        <v>1004700</v>
+        <v>957300</v>
       </c>
       <c r="H26" s="3">
-        <v>1923200</v>
+        <v>1832500</v>
       </c>
       <c r="I26" s="3">
-        <v>1844800</v>
+        <v>1757800</v>
       </c>
       <c r="J26" s="3">
-        <v>1167800</v>
+        <v>1112700</v>
       </c>
       <c r="K26" s="3"/>
     </row>
@@ -1179,25 +1179,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1759000</v>
+        <v>1676000</v>
       </c>
       <c r="E27" s="3">
-        <v>1548100</v>
+        <v>1475100</v>
       </c>
       <c r="F27" s="3">
-        <v>600700</v>
+        <v>572400</v>
       </c>
       <c r="G27" s="3">
-        <v>901000</v>
+        <v>858500</v>
       </c>
       <c r="H27" s="3">
-        <v>1822400</v>
+        <v>1736400</v>
       </c>
       <c r="I27" s="3">
-        <v>1744300</v>
+        <v>1662000</v>
       </c>
       <c r="J27" s="3">
-        <v>1086200</v>
+        <v>1035000</v>
       </c>
       <c r="K27" s="3"/>
     </row>
@@ -1317,22 +1317,22 @@
         <v>-600</v>
       </c>
       <c r="E32" s="3">
-        <v>-154500</v>
+        <v>-147300</v>
       </c>
       <c r="F32" s="3">
-        <v>-148400</v>
+        <v>-141400</v>
       </c>
       <c r="G32" s="3">
-        <v>-159400</v>
+        <v>-151900</v>
       </c>
       <c r="H32" s="3">
-        <v>-149500</v>
+        <v>-142500</v>
       </c>
       <c r="I32" s="3">
-        <v>-167400</v>
+        <v>-159500</v>
       </c>
       <c r="J32" s="3">
-        <v>-121500</v>
+        <v>-115700</v>
       </c>
       <c r="K32" s="3"/>
     </row>
@@ -1341,25 +1341,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1759000</v>
+        <v>1676000</v>
       </c>
       <c r="E33" s="3">
-        <v>1548100</v>
+        <v>1475100</v>
       </c>
       <c r="F33" s="3">
-        <v>600700</v>
+        <v>572400</v>
       </c>
       <c r="G33" s="3">
-        <v>901000</v>
+        <v>858500</v>
       </c>
       <c r="H33" s="3">
-        <v>1822400</v>
+        <v>1736400</v>
       </c>
       <c r="I33" s="3">
-        <v>1744300</v>
+        <v>1662000</v>
       </c>
       <c r="J33" s="3">
-        <v>1086200</v>
+        <v>1035000</v>
       </c>
       <c r="K33" s="3"/>
     </row>
@@ -1395,25 +1395,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1759000</v>
+        <v>1676000</v>
       </c>
       <c r="E35" s="3">
-        <v>1548100</v>
+        <v>1475100</v>
       </c>
       <c r="F35" s="3">
-        <v>600700</v>
+        <v>572400</v>
       </c>
       <c r="G35" s="3">
-        <v>901000</v>
+        <v>858500</v>
       </c>
       <c r="H35" s="3">
-        <v>1822400</v>
+        <v>1736400</v>
       </c>
       <c r="I35" s="3">
-        <v>1744300</v>
+        <v>1662000</v>
       </c>
       <c r="J35" s="3">
-        <v>1086200</v>
+        <v>1035000</v>
       </c>
       <c r="K35" s="3"/>
     </row>
@@ -1480,25 +1480,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2610700</v>
+        <v>2487600</v>
       </c>
       <c r="E41" s="3">
-        <v>2894100</v>
+        <v>2757600</v>
       </c>
       <c r="F41" s="3">
-        <v>2939400</v>
+        <v>2800800</v>
       </c>
       <c r="G41" s="3">
-        <v>2976400</v>
+        <v>2836000</v>
       </c>
       <c r="H41" s="3">
-        <v>3753900</v>
+        <v>3576800</v>
       </c>
       <c r="I41" s="3">
-        <v>5204300</v>
+        <v>4958900</v>
       </c>
       <c r="J41" s="3">
-        <v>4543700</v>
+        <v>4329400</v>
       </c>
       <c r="K41" s="3"/>
     </row>
@@ -1507,25 +1507,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>78600</v>
+        <v>74900</v>
       </c>
       <c r="E42" s="3">
-        <v>24300</v>
+        <v>23200</v>
       </c>
       <c r="F42" s="3">
         <v>500</v>
       </c>
       <c r="G42" s="3">
-        <v>12700</v>
+        <v>12100</v>
       </c>
       <c r="H42" s="3">
-        <v>6900</v>
+        <v>6600</v>
       </c>
       <c r="I42" s="3">
-        <v>14200</v>
+        <v>13500</v>
       </c>
       <c r="J42" s="3">
-        <v>23100</v>
+        <v>22000</v>
       </c>
       <c r="K42" s="3"/>
     </row>
@@ -1534,25 +1534,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5469500</v>
+        <v>5211600</v>
       </c>
       <c r="E43" s="3">
-        <v>3666400</v>
+        <v>3493500</v>
       </c>
       <c r="F43" s="3">
-        <v>3858300</v>
+        <v>3676300</v>
       </c>
       <c r="G43" s="3">
-        <v>4036400</v>
+        <v>3846100</v>
       </c>
       <c r="H43" s="3">
-        <v>4419400</v>
+        <v>4211000</v>
       </c>
       <c r="I43" s="3">
-        <v>4692800</v>
+        <v>4471500</v>
       </c>
       <c r="J43" s="3">
-        <v>4624900</v>
+        <v>4406800</v>
       </c>
       <c r="K43" s="3"/>
     </row>
@@ -1561,25 +1561,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5827900</v>
+        <v>5553100</v>
       </c>
       <c r="E44" s="3">
-        <v>4690600</v>
+        <v>4469400</v>
       </c>
       <c r="F44" s="3">
-        <v>4057800</v>
+        <v>3866500</v>
       </c>
       <c r="G44" s="3">
-        <v>4216100</v>
+        <v>4017300</v>
       </c>
       <c r="H44" s="3">
-        <v>4407300</v>
+        <v>4199500</v>
       </c>
       <c r="I44" s="3">
-        <v>4109900</v>
+        <v>3916100</v>
       </c>
       <c r="J44" s="3">
-        <v>4042900</v>
+        <v>3852300</v>
       </c>
       <c r="K44" s="3"/>
     </row>
@@ -1588,25 +1588,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1557300</v>
+        <v>1483900</v>
       </c>
       <c r="E45" s="3">
-        <v>2267500</v>
+        <v>2160500</v>
       </c>
       <c r="F45" s="3">
-        <v>2043700</v>
+        <v>1947300</v>
       </c>
       <c r="G45" s="3">
-        <v>2067800</v>
+        <v>1970300</v>
       </c>
       <c r="H45" s="3">
-        <v>2194300</v>
+        <v>2090900</v>
       </c>
       <c r="I45" s="3">
-        <v>2076200</v>
+        <v>1978300</v>
       </c>
       <c r="J45" s="3">
-        <v>1904600</v>
+        <v>1814700</v>
       </c>
       <c r="K45" s="3"/>
     </row>
@@ -1615,25 +1615,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>15544100</v>
+        <v>14811100</v>
       </c>
       <c r="E46" s="3">
-        <v>13542900</v>
+        <v>12904200</v>
       </c>
       <c r="F46" s="3">
-        <v>12899700</v>
+        <v>12291400</v>
       </c>
       <c r="G46" s="3">
-        <v>13309400</v>
+        <v>12681800</v>
       </c>
       <c r="H46" s="3">
-        <v>14781800</v>
+        <v>14084700</v>
       </c>
       <c r="I46" s="3">
-        <v>16097400</v>
+        <v>15338300</v>
       </c>
       <c r="J46" s="3">
-        <v>15139200</v>
+        <v>14425300</v>
       </c>
       <c r="K46" s="3"/>
     </row>
@@ -1642,25 +1642,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2286700</v>
+        <v>2178900</v>
       </c>
       <c r="E47" s="3">
-        <v>259900</v>
+        <v>247600</v>
       </c>
       <c r="F47" s="3">
-        <v>266100</v>
+        <v>253600</v>
       </c>
       <c r="G47" s="3">
-        <v>267700</v>
+        <v>255000</v>
       </c>
       <c r="H47" s="3">
-        <v>285100</v>
+        <v>271700</v>
       </c>
       <c r="I47" s="3">
-        <v>403300</v>
+        <v>384300</v>
       </c>
       <c r="J47" s="3">
-        <v>366300</v>
+        <v>349100</v>
       </c>
       <c r="K47" s="3"/>
     </row>
@@ -1669,25 +1669,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8312500</v>
+        <v>7920500</v>
       </c>
       <c r="E48" s="3">
-        <v>8199200</v>
+        <v>7812500</v>
       </c>
       <c r="F48" s="3">
-        <v>8255700</v>
+        <v>7866400</v>
       </c>
       <c r="G48" s="3">
-        <v>8681500</v>
+        <v>8272100</v>
       </c>
       <c r="H48" s="3">
-        <v>7866100</v>
+        <v>7495100</v>
       </c>
       <c r="I48" s="3">
-        <v>8122900</v>
+        <v>7739900</v>
       </c>
       <c r="J48" s="3">
-        <v>8615800</v>
+        <v>8209500</v>
       </c>
       <c r="K48" s="3"/>
     </row>
@@ -1696,25 +1696,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>9038600</v>
+        <v>8612400</v>
       </c>
       <c r="E49" s="3">
-        <v>9053200</v>
+        <v>8626300</v>
       </c>
       <c r="F49" s="3">
-        <v>8897600</v>
+        <v>8478000</v>
       </c>
       <c r="G49" s="3">
-        <v>8987900</v>
+        <v>8564000</v>
       </c>
       <c r="H49" s="3">
-        <v>9369600</v>
+        <v>8927800</v>
       </c>
       <c r="I49" s="3">
-        <v>9789000</v>
+        <v>9327400</v>
       </c>
       <c r="J49" s="3">
-        <v>9969200</v>
+        <v>9499100</v>
       </c>
       <c r="K49" s="3"/>
     </row>
@@ -1777,25 +1777,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1556800</v>
+        <v>1483400</v>
       </c>
       <c r="E52" s="3">
-        <v>3198800</v>
+        <v>3048000</v>
       </c>
       <c r="F52" s="3">
-        <v>3031500</v>
+        <v>2888600</v>
       </c>
       <c r="G52" s="3">
-        <v>3159100</v>
+        <v>3010200</v>
       </c>
       <c r="H52" s="3">
-        <v>3022600</v>
+        <v>2880000</v>
       </c>
       <c r="I52" s="3">
-        <v>3067000</v>
+        <v>2922400</v>
       </c>
       <c r="J52" s="3">
-        <v>2958300</v>
+        <v>2818800</v>
       </c>
       <c r="K52" s="3"/>
     </row>
@@ -1831,25 +1831,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>36738800</v>
+        <v>35006300</v>
       </c>
       <c r="E54" s="3">
-        <v>34253900</v>
+        <v>32638600</v>
       </c>
       <c r="F54" s="3">
-        <v>33350700</v>
+        <v>31778000</v>
       </c>
       <c r="G54" s="3">
-        <v>34405500</v>
+        <v>32783100</v>
       </c>
       <c r="H54" s="3">
-        <v>35325100</v>
+        <v>33659300</v>
       </c>
       <c r="I54" s="3">
-        <v>37479700</v>
+        <v>35712300</v>
       </c>
       <c r="J54" s="3">
-        <v>37048800</v>
+        <v>35301700</v>
       </c>
       <c r="K54" s="3"/>
     </row>
@@ -1884,25 +1884,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2566300</v>
+        <v>2445200</v>
       </c>
       <c r="E57" s="3">
-        <v>2441300</v>
+        <v>2326200</v>
       </c>
       <c r="F57" s="3">
-        <v>2190500</v>
+        <v>2087200</v>
       </c>
       <c r="G57" s="3">
-        <v>2201300</v>
+        <v>2097500</v>
       </c>
       <c r="H57" s="3">
-        <v>2541400</v>
+        <v>2421600</v>
       </c>
       <c r="I57" s="3">
-        <v>2744500</v>
+        <v>2615100</v>
       </c>
       <c r="J57" s="3">
-        <v>2684100</v>
+        <v>2557500</v>
       </c>
       <c r="K57" s="3"/>
     </row>
@@ -1911,25 +1911,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2136900</v>
+        <v>2036200</v>
       </c>
       <c r="E58" s="3">
-        <v>323700</v>
+        <v>308400</v>
       </c>
       <c r="F58" s="3">
-        <v>2828000</v>
+        <v>2694700</v>
       </c>
       <c r="G58" s="3">
-        <v>303100</v>
+        <v>288800</v>
       </c>
       <c r="H58" s="3">
-        <v>277800</v>
+        <v>264700</v>
       </c>
       <c r="I58" s="3">
-        <v>283600</v>
+        <v>270200</v>
       </c>
       <c r="J58" s="3">
-        <v>13300</v>
+        <v>12700</v>
       </c>
       <c r="K58" s="3"/>
     </row>
@@ -1938,25 +1938,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5141000</v>
+        <v>4898600</v>
       </c>
       <c r="E59" s="3">
-        <v>4883600</v>
+        <v>4653300</v>
       </c>
       <c r="F59" s="3">
-        <v>4543300</v>
+        <v>4329100</v>
       </c>
       <c r="G59" s="3">
-        <v>4503800</v>
+        <v>4291400</v>
       </c>
       <c r="H59" s="3">
-        <v>4604600</v>
+        <v>4387400</v>
       </c>
       <c r="I59" s="3">
-        <v>4971300</v>
+        <v>4736900</v>
       </c>
       <c r="J59" s="3">
-        <v>4392700</v>
+        <v>4185500</v>
       </c>
       <c r="K59" s="3"/>
     </row>
@@ -1965,25 +1965,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9844200</v>
+        <v>9380000</v>
       </c>
       <c r="E60" s="3">
-        <v>7648600</v>
+        <v>7287900</v>
       </c>
       <c r="F60" s="3">
-        <v>9561800</v>
+        <v>9110900</v>
       </c>
       <c r="G60" s="3">
-        <v>7008100</v>
+        <v>6677700</v>
       </c>
       <c r="H60" s="3">
-        <v>7423800</v>
+        <v>7073700</v>
       </c>
       <c r="I60" s="3">
-        <v>7999400</v>
+        <v>7622100</v>
       </c>
       <c r="J60" s="3">
-        <v>7090100</v>
+        <v>6755700</v>
       </c>
       <c r="K60" s="3"/>
     </row>
@@ -1992,25 +1992,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>17400</v>
+        <v>16600</v>
       </c>
       <c r="E61" s="3">
-        <v>1296000</v>
+        <v>1234900</v>
       </c>
       <c r="F61" s="3">
-        <v>34900</v>
+        <v>33200</v>
       </c>
       <c r="G61" s="3">
-        <v>2576400</v>
+        <v>2454900</v>
       </c>
       <c r="H61" s="3">
-        <v>2609700</v>
+        <v>2486700</v>
       </c>
       <c r="I61" s="3">
-        <v>3556200</v>
+        <v>3388500</v>
       </c>
       <c r="J61" s="3">
-        <v>4407400</v>
+        <v>4199600</v>
       </c>
       <c r="K61" s="3"/>
     </row>
@@ -2019,25 +2019,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2730600</v>
+        <v>2601900</v>
       </c>
       <c r="E62" s="3">
-        <v>2969600</v>
+        <v>2829600</v>
       </c>
       <c r="F62" s="3">
-        <v>3681100</v>
+        <v>3507500</v>
       </c>
       <c r="G62" s="3">
-        <v>4027500</v>
+        <v>3837500</v>
       </c>
       <c r="H62" s="3">
-        <v>3532400</v>
+        <v>3365900</v>
       </c>
       <c r="I62" s="3">
-        <v>3600700</v>
+        <v>3430900</v>
       </c>
       <c r="J62" s="3">
-        <v>3960100</v>
+        <v>3773300</v>
       </c>
       <c r="K62" s="3"/>
     </row>
@@ -2127,25 +2127,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>14293300</v>
+        <v>13619300</v>
       </c>
       <c r="E66" s="3">
-        <v>13534000</v>
+        <v>12895800</v>
       </c>
       <c r="F66" s="3">
-        <v>14784700</v>
+        <v>14087500</v>
       </c>
       <c r="G66" s="3">
-        <v>15043100</v>
+        <v>14333700</v>
       </c>
       <c r="H66" s="3">
-        <v>14938100</v>
+        <v>14233700</v>
       </c>
       <c r="I66" s="3">
-        <v>16782400</v>
+        <v>15991000</v>
       </c>
       <c r="J66" s="3">
-        <v>16982400</v>
+        <v>16181600</v>
       </c>
       <c r="K66" s="3"/>
     </row>
@@ -2275,25 +2275,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>26887800</v>
+        <v>25619900</v>
       </c>
       <c r="E72" s="3">
-        <v>25999600</v>
+        <v>24773600</v>
       </c>
       <c r="F72" s="3">
-        <v>25082200</v>
+        <v>23899400</v>
       </c>
       <c r="G72" s="3">
-        <v>25398300</v>
+        <v>24200600</v>
       </c>
       <c r="H72" s="3">
-        <v>25783100</v>
+        <v>24567300</v>
       </c>
       <c r="I72" s="3">
-        <v>25207500</v>
+        <v>24018800</v>
       </c>
       <c r="J72" s="3">
-        <v>24638600</v>
+        <v>23476800</v>
       </c>
       <c r="K72" s="3"/>
     </row>
@@ -2383,25 +2383,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>22445500</v>
+        <v>21387000</v>
       </c>
       <c r="E76" s="3">
-        <v>20719900</v>
+        <v>19742800</v>
       </c>
       <c r="F76" s="3">
-        <v>18566000</v>
+        <v>17690500</v>
       </c>
       <c r="G76" s="3">
-        <v>19362400</v>
+        <v>18449400</v>
       </c>
       <c r="H76" s="3">
-        <v>20387000</v>
+        <v>19425600</v>
       </c>
       <c r="I76" s="3">
-        <v>20697200</v>
+        <v>19721200</v>
       </c>
       <c r="J76" s="3">
-        <v>20066400</v>
+        <v>19120100</v>
       </c>
       <c r="K76" s="3"/>
     </row>
@@ -2469,25 +2469,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1759000</v>
+        <v>1676000</v>
       </c>
       <c r="E81" s="3">
-        <v>1548100</v>
+        <v>1475100</v>
       </c>
       <c r="F81" s="3">
-        <v>600700</v>
+        <v>572400</v>
       </c>
       <c r="G81" s="3">
-        <v>901000</v>
+        <v>858500</v>
       </c>
       <c r="H81" s="3">
-        <v>1822400</v>
+        <v>1736400</v>
       </c>
       <c r="I81" s="3">
-        <v>1744300</v>
+        <v>1662000</v>
       </c>
       <c r="J81" s="3">
-        <v>1086200</v>
+        <v>1035000</v>
       </c>
       <c r="K81" s="3"/>
     </row>
@@ -2509,25 +2509,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1633000</v>
+        <v>1556000</v>
       </c>
       <c r="E83" s="3">
-        <v>1595200</v>
+        <v>1520000</v>
       </c>
       <c r="F83" s="3">
-        <v>1642600</v>
+        <v>1565200</v>
       </c>
       <c r="G83" s="3">
-        <v>1711100</v>
+        <v>1630400</v>
       </c>
       <c r="H83" s="3">
-        <v>1813700</v>
+        <v>1728200</v>
       </c>
       <c r="I83" s="3">
-        <v>1888200</v>
+        <v>1799100</v>
       </c>
       <c r="J83" s="3">
-        <v>1803200</v>
+        <v>1718200</v>
       </c>
       <c r="K83" s="3"/>
     </row>
@@ -2671,25 +2671,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1893400</v>
+        <v>1804100</v>
       </c>
       <c r="E89" s="3">
-        <v>3251900</v>
+        <v>3098600</v>
       </c>
       <c r="F89" s="3">
-        <v>2406700</v>
+        <v>2293200</v>
       </c>
       <c r="G89" s="3">
-        <v>2584500</v>
+        <v>2462600</v>
       </c>
       <c r="H89" s="3">
-        <v>2633800</v>
+        <v>2509600</v>
       </c>
       <c r="I89" s="3">
-        <v>4257900</v>
+        <v>4057100</v>
       </c>
       <c r="J89" s="3">
-        <v>3607000</v>
+        <v>3436900</v>
       </c>
       <c r="K89" s="3"/>
     </row>
@@ -2711,25 +2711,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1359300</v>
+        <v>-1295200</v>
       </c>
       <c r="E91" s="3">
-        <v>-1278700</v>
+        <v>-1218400</v>
       </c>
       <c r="F91" s="3">
-        <v>-1187600</v>
+        <v>-1131600</v>
       </c>
       <c r="G91" s="3">
-        <v>-1555000</v>
+        <v>-1481700</v>
       </c>
       <c r="H91" s="3">
-        <v>-1380000</v>
+        <v>-1314900</v>
       </c>
       <c r="I91" s="3">
-        <v>-1366200</v>
+        <v>-1301800</v>
       </c>
       <c r="J91" s="3">
-        <v>-1492300</v>
+        <v>-1421900</v>
       </c>
       <c r="K91" s="3"/>
     </row>
@@ -2792,25 +2792,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1303700</v>
+        <v>-1242200</v>
       </c>
       <c r="E94" s="3">
-        <v>-1494300</v>
+        <v>-1423800</v>
       </c>
       <c r="F94" s="3">
-        <v>-1120700</v>
+        <v>-1067900</v>
       </c>
       <c r="G94" s="3">
-        <v>-1648000</v>
+        <v>-1570300</v>
       </c>
       <c r="H94" s="3">
-        <v>-1410400</v>
+        <v>-1343900</v>
       </c>
       <c r="I94" s="3">
-        <v>-1189700</v>
+        <v>-1133600</v>
       </c>
       <c r="J94" s="3">
-        <v>-6035700</v>
+        <v>-5751000</v>
       </c>
       <c r="K94" s="3"/>
     </row>
@@ -2832,25 +2832,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-860300</v>
+        <v>-819800</v>
       </c>
       <c r="E96" s="3">
-        <v>-640900</v>
+        <v>-610700</v>
       </c>
       <c r="F96" s="3">
-        <v>-915200</v>
+        <v>-872100</v>
       </c>
       <c r="G96" s="3">
-        <v>-1236400</v>
+        <v>-1178100</v>
       </c>
       <c r="H96" s="3">
-        <v>-1284500</v>
+        <v>-1224000</v>
       </c>
       <c r="I96" s="3">
-        <v>-1174400</v>
+        <v>-1119000</v>
       </c>
       <c r="J96" s="3">
-        <v>-1181100</v>
+        <v>-1125400</v>
       </c>
       <c r="K96" s="3"/>
     </row>
@@ -2940,25 +2940,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1058700</v>
+        <v>-1008800</v>
       </c>
       <c r="E100" s="3">
-        <v>-1927700</v>
+        <v>-1836800</v>
       </c>
       <c r="F100" s="3">
-        <v>-1322700</v>
+        <v>-1260300</v>
       </c>
       <c r="G100" s="3">
-        <v>-1677000</v>
+        <v>-1597900</v>
       </c>
       <c r="H100" s="3">
-        <v>-2558300</v>
+        <v>-2437700</v>
       </c>
       <c r="I100" s="3">
-        <v>-2454700</v>
+        <v>-2339000</v>
       </c>
       <c r="J100" s="3">
-        <v>2564500</v>
+        <v>2443600</v>
       </c>
       <c r="K100" s="3"/>
     </row>
@@ -2967,25 +2967,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>185800</v>
+        <v>177000</v>
       </c>
       <c r="E101" s="3">
-        <v>124800</v>
+        <v>118900</v>
       </c>
       <c r="F101" s="3">
         <v>-300</v>
       </c>
       <c r="G101" s="3">
-        <v>-37000</v>
+        <v>-35300</v>
       </c>
       <c r="H101" s="3">
-        <v>-115500</v>
+        <v>-110000</v>
       </c>
       <c r="I101" s="3">
-        <v>47100</v>
+        <v>44900</v>
       </c>
       <c r="J101" s="3">
-        <v>-160600</v>
+        <v>-153000</v>
       </c>
       <c r="K101" s="3"/>
     </row>
@@ -2994,25 +2994,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-283300</v>
+        <v>-269900</v>
       </c>
       <c r="E102" s="3">
-        <v>-45300</v>
+        <v>-43200</v>
       </c>
       <c r="F102" s="3">
-        <v>-37000</v>
+        <v>-35200</v>
       </c>
       <c r="G102" s="3">
-        <v>-777500</v>
+        <v>-740800</v>
       </c>
       <c r="H102" s="3">
-        <v>-1450400</v>
+        <v>-1382000</v>
       </c>
       <c r="I102" s="3">
-        <v>660600</v>
+        <v>629400</v>
       </c>
       <c r="J102" s="3">
-        <v>-24700</v>
+        <v>-23500</v>
       </c>
       <c r="K102" s="3"/>
     </row>

--- a/AAII_Financials/Yearly/CAJPY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CAJPY_YR_FIN.xlsx
@@ -711,25 +711,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>27695800</v>
+        <v>26768600</v>
       </c>
       <c r="E8" s="3">
-        <v>24136800</v>
+        <v>23328700</v>
       </c>
       <c r="F8" s="3">
-        <v>21710900</v>
+        <v>20984000</v>
       </c>
       <c r="G8" s="3">
-        <v>24686000</v>
+        <v>23859500</v>
       </c>
       <c r="H8" s="3">
-        <v>27149800</v>
+        <v>26240900</v>
       </c>
       <c r="I8" s="3">
-        <v>28029700</v>
+        <v>27091300</v>
       </c>
       <c r="J8" s="3">
-        <v>23368200</v>
+        <v>22585900</v>
       </c>
       <c r="K8" s="3"/>
     </row>
@@ -738,25 +738,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>15138800</v>
+        <v>14632000</v>
       </c>
       <c r="E9" s="3">
-        <v>12953800</v>
+        <v>12520200</v>
       </c>
       <c r="F9" s="3">
-        <v>12258700</v>
+        <v>11848300</v>
       </c>
       <c r="G9" s="3">
-        <v>13625000</v>
+        <v>13168900</v>
       </c>
       <c r="H9" s="3">
-        <v>14539600</v>
+        <v>14052800</v>
       </c>
       <c r="I9" s="3">
-        <v>14339900</v>
+        <v>13859800</v>
       </c>
       <c r="J9" s="3">
-        <v>11869000</v>
+        <v>11471600</v>
       </c>
       <c r="K9" s="3"/>
     </row>
@@ -765,25 +765,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>12557000</v>
+        <v>12136600</v>
       </c>
       <c r="E10" s="3">
-        <v>11182900</v>
+        <v>10808500</v>
       </c>
       <c r="F10" s="3">
-        <v>9452200</v>
+        <v>9135800</v>
       </c>
       <c r="G10" s="3">
-        <v>11060900</v>
+        <v>10690600</v>
       </c>
       <c r="H10" s="3">
-        <v>12610300</v>
+        <v>12188100</v>
       </c>
       <c r="I10" s="3">
-        <v>13689800</v>
+        <v>13231500</v>
       </c>
       <c r="J10" s="3">
-        <v>11499200</v>
+        <v>11114300</v>
       </c>
       <c r="K10" s="3"/>
     </row>
@@ -805,25 +805,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2107200</v>
+        <v>2036700</v>
       </c>
       <c r="E12" s="3">
-        <v>1974000</v>
+        <v>1907900</v>
       </c>
       <c r="F12" s="3">
-        <v>1870800</v>
+        <v>1808200</v>
       </c>
       <c r="G12" s="3">
-        <v>2050700</v>
+        <v>1982100</v>
       </c>
       <c r="H12" s="3">
-        <v>2169800</v>
+        <v>2097200</v>
       </c>
       <c r="I12" s="3">
-        <v>2267500</v>
+        <v>2191600</v>
       </c>
       <c r="J12" s="3">
-        <v>2077300</v>
+        <v>2007800</v>
       </c>
       <c r="K12" s="3"/>
     </row>
@@ -874,7 +874,7 @@
         <v>10</v>
       </c>
       <c r="I14" s="3">
-        <v>233000</v>
+        <v>225200</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>10</v>
@@ -923,25 +923,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>25268000</v>
+        <v>24422000</v>
       </c>
       <c r="E17" s="3">
-        <v>22200000</v>
+        <v>21456800</v>
       </c>
       <c r="F17" s="3">
-        <v>20951400</v>
+        <v>20250000</v>
       </c>
       <c r="G17" s="3">
-        <v>23487700</v>
+        <v>22701400</v>
       </c>
       <c r="H17" s="3">
-        <v>24793700</v>
+        <v>23963700</v>
       </c>
       <c r="I17" s="3">
-        <v>25752400</v>
+        <v>24890300</v>
       </c>
       <c r="J17" s="3">
-        <v>21795900</v>
+        <v>21066200</v>
       </c>
       <c r="K17" s="3"/>
     </row>
@@ -950,25 +950,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2427900</v>
+        <v>2346600</v>
       </c>
       <c r="E18" s="3">
-        <v>1936800</v>
+        <v>1871900</v>
       </c>
       <c r="F18" s="3">
-        <v>759500</v>
+        <v>734000</v>
       </c>
       <c r="G18" s="3">
-        <v>1198300</v>
+        <v>1158100</v>
       </c>
       <c r="H18" s="3">
-        <v>2356100</v>
+        <v>2277200</v>
       </c>
       <c r="I18" s="3">
-        <v>2277300</v>
+        <v>2201000</v>
       </c>
       <c r="J18" s="3">
-        <v>1572300</v>
+        <v>1519700</v>
       </c>
       <c r="K18" s="3"/>
     </row>
@@ -993,22 +993,22 @@
         <v>600</v>
       </c>
       <c r="E20" s="3">
-        <v>147300</v>
+        <v>142300</v>
       </c>
       <c r="F20" s="3">
-        <v>141400</v>
+        <v>136700</v>
       </c>
       <c r="G20" s="3">
-        <v>151900</v>
+        <v>146800</v>
       </c>
       <c r="H20" s="3">
-        <v>142500</v>
+        <v>137700</v>
       </c>
       <c r="I20" s="3">
-        <v>159500</v>
+        <v>154200</v>
       </c>
       <c r="J20" s="3">
-        <v>115700</v>
+        <v>111900</v>
       </c>
       <c r="K20" s="3"/>
     </row>
@@ -1017,25 +1017,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3984400</v>
+        <v>3844300</v>
       </c>
       <c r="E21" s="3">
-        <v>3604000</v>
+        <v>3476700</v>
       </c>
       <c r="F21" s="3">
-        <v>2466000</v>
+        <v>2376700</v>
       </c>
       <c r="G21" s="3">
-        <v>2980600</v>
+        <v>2873700</v>
       </c>
       <c r="H21" s="3">
-        <v>4226700</v>
+        <v>4077700</v>
       </c>
       <c r="I21" s="3">
-        <v>4235900</v>
+        <v>4086300</v>
       </c>
       <c r="J21" s="3">
-        <v>3406200</v>
+        <v>3284700</v>
       </c>
       <c r="K21" s="3"/>
     </row>
@@ -1044,25 +1044,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>7200</v>
+        <v>6900</v>
       </c>
       <c r="E22" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="F22" s="3">
-        <v>5900</v>
+        <v>5700</v>
       </c>
       <c r="G22" s="3">
-        <v>7100</v>
+        <v>6900</v>
       </c>
       <c r="H22" s="3">
-        <v>5500</v>
+        <v>5300</v>
       </c>
       <c r="I22" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="J22" s="3">
-        <v>7300</v>
+        <v>7000</v>
       </c>
       <c r="K22" s="3"/>
     </row>
@@ -1071,25 +1071,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2421300</v>
+        <v>2340200</v>
       </c>
       <c r="E23" s="3">
-        <v>2079600</v>
+        <v>2010000</v>
       </c>
       <c r="F23" s="3">
-        <v>895000</v>
+        <v>865100</v>
       </c>
       <c r="G23" s="3">
-        <v>1343000</v>
+        <v>1298100</v>
       </c>
       <c r="H23" s="3">
-        <v>2493100</v>
+        <v>2409600</v>
       </c>
       <c r="I23" s="3">
-        <v>2431200</v>
+        <v>2349800</v>
       </c>
       <c r="J23" s="3">
-        <v>1680800</v>
+        <v>1624500</v>
       </c>
       <c r="K23" s="3"/>
     </row>
@@ -1098,25 +1098,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>634500</v>
+        <v>613200</v>
       </c>
       <c r="E24" s="3">
-        <v>493700</v>
+        <v>477200</v>
       </c>
       <c r="F24" s="3">
-        <v>235900</v>
+        <v>228000</v>
       </c>
       <c r="G24" s="3">
-        <v>385700</v>
+        <v>372800</v>
       </c>
       <c r="H24" s="3">
-        <v>660600</v>
+        <v>638400</v>
       </c>
       <c r="I24" s="3">
-        <v>673400</v>
+        <v>650900</v>
       </c>
       <c r="J24" s="3">
-        <v>568000</v>
+        <v>549000</v>
       </c>
       <c r="K24" s="3"/>
     </row>
@@ -1152,25 +1152,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1786800</v>
+        <v>1727000</v>
       </c>
       <c r="E26" s="3">
-        <v>1585900</v>
+        <v>1532800</v>
       </c>
       <c r="F26" s="3">
-        <v>659100</v>
+        <v>637100</v>
       </c>
       <c r="G26" s="3">
-        <v>957300</v>
+        <v>925300</v>
       </c>
       <c r="H26" s="3">
-        <v>1832500</v>
+        <v>1771200</v>
       </c>
       <c r="I26" s="3">
-        <v>1757800</v>
+        <v>1698900</v>
       </c>
       <c r="J26" s="3">
-        <v>1112700</v>
+        <v>1075500</v>
       </c>
       <c r="K26" s="3"/>
     </row>
@@ -1179,25 +1179,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1676000</v>
+        <v>1619900</v>
       </c>
       <c r="E27" s="3">
-        <v>1475100</v>
+        <v>1425700</v>
       </c>
       <c r="F27" s="3">
-        <v>572400</v>
+        <v>553200</v>
       </c>
       <c r="G27" s="3">
-        <v>858500</v>
+        <v>829800</v>
       </c>
       <c r="H27" s="3">
-        <v>1736400</v>
+        <v>1678300</v>
       </c>
       <c r="I27" s="3">
-        <v>1662000</v>
+        <v>1606400</v>
       </c>
       <c r="J27" s="3">
-        <v>1035000</v>
+        <v>1000300</v>
       </c>
       <c r="K27" s="3"/>
     </row>
@@ -1317,22 +1317,22 @@
         <v>-600</v>
       </c>
       <c r="E32" s="3">
-        <v>-147300</v>
+        <v>-142300</v>
       </c>
       <c r="F32" s="3">
-        <v>-141400</v>
+        <v>-136700</v>
       </c>
       <c r="G32" s="3">
-        <v>-151900</v>
+        <v>-146800</v>
       </c>
       <c r="H32" s="3">
-        <v>-142500</v>
+        <v>-137700</v>
       </c>
       <c r="I32" s="3">
-        <v>-159500</v>
+        <v>-154200</v>
       </c>
       <c r="J32" s="3">
-        <v>-115700</v>
+        <v>-111900</v>
       </c>
       <c r="K32" s="3"/>
     </row>
@@ -1341,25 +1341,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1676000</v>
+        <v>1619900</v>
       </c>
       <c r="E33" s="3">
-        <v>1475100</v>
+        <v>1425700</v>
       </c>
       <c r="F33" s="3">
-        <v>572400</v>
+        <v>553200</v>
       </c>
       <c r="G33" s="3">
-        <v>858500</v>
+        <v>829800</v>
       </c>
       <c r="H33" s="3">
-        <v>1736400</v>
+        <v>1678300</v>
       </c>
       <c r="I33" s="3">
-        <v>1662000</v>
+        <v>1606400</v>
       </c>
       <c r="J33" s="3">
-        <v>1035000</v>
+        <v>1000300</v>
       </c>
       <c r="K33" s="3"/>
     </row>
@@ -1395,25 +1395,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1676000</v>
+        <v>1619900</v>
       </c>
       <c r="E35" s="3">
-        <v>1475100</v>
+        <v>1425700</v>
       </c>
       <c r="F35" s="3">
-        <v>572400</v>
+        <v>553200</v>
       </c>
       <c r="G35" s="3">
-        <v>858500</v>
+        <v>829800</v>
       </c>
       <c r="H35" s="3">
-        <v>1736400</v>
+        <v>1678300</v>
       </c>
       <c r="I35" s="3">
-        <v>1662000</v>
+        <v>1606400</v>
       </c>
       <c r="J35" s="3">
-        <v>1035000</v>
+        <v>1000300</v>
       </c>
       <c r="K35" s="3"/>
     </row>
@@ -1480,25 +1480,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2487600</v>
+        <v>2404400</v>
       </c>
       <c r="E41" s="3">
-        <v>2757600</v>
+        <v>2665300</v>
       </c>
       <c r="F41" s="3">
-        <v>2800800</v>
+        <v>2707000</v>
       </c>
       <c r="G41" s="3">
-        <v>2836000</v>
+        <v>2741100</v>
       </c>
       <c r="H41" s="3">
-        <v>3576800</v>
+        <v>3457100</v>
       </c>
       <c r="I41" s="3">
-        <v>4958900</v>
+        <v>4792800</v>
       </c>
       <c r="J41" s="3">
-        <v>4329400</v>
+        <v>4184500</v>
       </c>
       <c r="K41" s="3"/>
     </row>
@@ -1507,25 +1507,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>74900</v>
+        <v>72400</v>
       </c>
       <c r="E42" s="3">
-        <v>23200</v>
+        <v>22400</v>
       </c>
       <c r="F42" s="3">
         <v>500</v>
       </c>
       <c r="G42" s="3">
-        <v>12100</v>
+        <v>11700</v>
       </c>
       <c r="H42" s="3">
-        <v>6600</v>
+        <v>6300</v>
       </c>
       <c r="I42" s="3">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="J42" s="3">
-        <v>22000</v>
+        <v>21300</v>
       </c>
       <c r="K42" s="3"/>
     </row>
@@ -1534,25 +1534,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5211600</v>
+        <v>5037100</v>
       </c>
       <c r="E43" s="3">
-        <v>3493500</v>
+        <v>3376500</v>
       </c>
       <c r="F43" s="3">
-        <v>3676300</v>
+        <v>3553200</v>
       </c>
       <c r="G43" s="3">
-        <v>3846100</v>
+        <v>3717300</v>
       </c>
       <c r="H43" s="3">
-        <v>4211000</v>
+        <v>4070000</v>
       </c>
       <c r="I43" s="3">
-        <v>4471500</v>
+        <v>4321800</v>
       </c>
       <c r="J43" s="3">
-        <v>4406800</v>
+        <v>4259300</v>
       </c>
       <c r="K43" s="3"/>
     </row>
@@ -1561,25 +1561,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5553100</v>
+        <v>5367200</v>
       </c>
       <c r="E44" s="3">
-        <v>4469400</v>
+        <v>4319800</v>
       </c>
       <c r="F44" s="3">
-        <v>3866500</v>
+        <v>3737000</v>
       </c>
       <c r="G44" s="3">
-        <v>4017300</v>
+        <v>3882800</v>
       </c>
       <c r="H44" s="3">
-        <v>4199500</v>
+        <v>4058900</v>
       </c>
       <c r="I44" s="3">
-        <v>3916100</v>
+        <v>3785000</v>
       </c>
       <c r="J44" s="3">
-        <v>3852300</v>
+        <v>3723300</v>
       </c>
       <c r="K44" s="3"/>
     </row>
@@ -1588,25 +1588,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1483900</v>
+        <v>1434200</v>
       </c>
       <c r="E45" s="3">
-        <v>2160500</v>
+        <v>2088200</v>
       </c>
       <c r="F45" s="3">
-        <v>1947300</v>
+        <v>1882100</v>
       </c>
       <c r="G45" s="3">
-        <v>1970300</v>
+        <v>1904300</v>
       </c>
       <c r="H45" s="3">
-        <v>2090900</v>
+        <v>2020900</v>
       </c>
       <c r="I45" s="3">
-        <v>1978300</v>
+        <v>1912100</v>
       </c>
       <c r="J45" s="3">
-        <v>1814700</v>
+        <v>1754000</v>
       </c>
       <c r="K45" s="3"/>
     </row>
@@ -1615,25 +1615,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>14811100</v>
+        <v>14315300</v>
       </c>
       <c r="E46" s="3">
-        <v>12904200</v>
+        <v>12472200</v>
       </c>
       <c r="F46" s="3">
-        <v>12291400</v>
+        <v>11879900</v>
       </c>
       <c r="G46" s="3">
-        <v>12681800</v>
+        <v>12257200</v>
       </c>
       <c r="H46" s="3">
-        <v>14084700</v>
+        <v>13613200</v>
       </c>
       <c r="I46" s="3">
-        <v>15338300</v>
+        <v>14824800</v>
       </c>
       <c r="J46" s="3">
-        <v>14425300</v>
+        <v>13942300</v>
       </c>
       <c r="K46" s="3"/>
     </row>
@@ -1642,25 +1642,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2178900</v>
+        <v>2106000</v>
       </c>
       <c r="E47" s="3">
-        <v>247600</v>
+        <v>239300</v>
       </c>
       <c r="F47" s="3">
-        <v>253600</v>
+        <v>245100</v>
       </c>
       <c r="G47" s="3">
-        <v>255000</v>
+        <v>246500</v>
       </c>
       <c r="H47" s="3">
-        <v>271700</v>
+        <v>262600</v>
       </c>
       <c r="I47" s="3">
-        <v>384300</v>
+        <v>371400</v>
       </c>
       <c r="J47" s="3">
-        <v>349100</v>
+        <v>337400</v>
       </c>
       <c r="K47" s="3"/>
     </row>
@@ -1669,25 +1669,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7920500</v>
+        <v>7655300</v>
       </c>
       <c r="E48" s="3">
-        <v>7812500</v>
+        <v>7551000</v>
       </c>
       <c r="F48" s="3">
-        <v>7866400</v>
+        <v>7603100</v>
       </c>
       <c r="G48" s="3">
-        <v>8272100</v>
+        <v>7995200</v>
       </c>
       <c r="H48" s="3">
-        <v>7495100</v>
+        <v>7244200</v>
       </c>
       <c r="I48" s="3">
-        <v>7739900</v>
+        <v>7480800</v>
       </c>
       <c r="J48" s="3">
-        <v>8209500</v>
+        <v>7934600</v>
       </c>
       <c r="K48" s="3"/>
     </row>
@@ -1696,25 +1696,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>8612400</v>
+        <v>8324000</v>
       </c>
       <c r="E49" s="3">
-        <v>8626300</v>
+        <v>8337500</v>
       </c>
       <c r="F49" s="3">
-        <v>8478000</v>
+        <v>8194200</v>
       </c>
       <c r="G49" s="3">
-        <v>8564000</v>
+        <v>8277300</v>
       </c>
       <c r="H49" s="3">
-        <v>8927800</v>
+        <v>8628900</v>
       </c>
       <c r="I49" s="3">
-        <v>9327400</v>
+        <v>9015100</v>
       </c>
       <c r="J49" s="3">
-        <v>9499100</v>
+        <v>9181100</v>
       </c>
       <c r="K49" s="3"/>
     </row>
@@ -1777,25 +1777,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1483400</v>
+        <v>1433700</v>
       </c>
       <c r="E52" s="3">
-        <v>3048000</v>
+        <v>2945900</v>
       </c>
       <c r="F52" s="3">
-        <v>2888600</v>
+        <v>2791800</v>
       </c>
       <c r="G52" s="3">
-        <v>3010200</v>
+        <v>2909400</v>
       </c>
       <c r="H52" s="3">
-        <v>2880000</v>
+        <v>2783600</v>
       </c>
       <c r="I52" s="3">
-        <v>2922400</v>
+        <v>2824600</v>
       </c>
       <c r="J52" s="3">
-        <v>2818800</v>
+        <v>2724400</v>
       </c>
       <c r="K52" s="3"/>
     </row>
@@ -1831,25 +1831,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>35006300</v>
+        <v>33834300</v>
       </c>
       <c r="E54" s="3">
-        <v>32638600</v>
+        <v>31545900</v>
       </c>
       <c r="F54" s="3">
-        <v>31778000</v>
+        <v>30714100</v>
       </c>
       <c r="G54" s="3">
-        <v>32783100</v>
+        <v>31685500</v>
       </c>
       <c r="H54" s="3">
-        <v>33659300</v>
+        <v>32532400</v>
       </c>
       <c r="I54" s="3">
-        <v>35712300</v>
+        <v>34516700</v>
       </c>
       <c r="J54" s="3">
-        <v>35301700</v>
+        <v>34119800</v>
       </c>
       <c r="K54" s="3"/>
     </row>
@@ -1884,25 +1884,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2445200</v>
+        <v>2363400</v>
       </c>
       <c r="E57" s="3">
-        <v>2326200</v>
+        <v>2248300</v>
       </c>
       <c r="F57" s="3">
-        <v>2087200</v>
+        <v>2017300</v>
       </c>
       <c r="G57" s="3">
-        <v>2097500</v>
+        <v>2027300</v>
       </c>
       <c r="H57" s="3">
-        <v>2421600</v>
+        <v>2340500</v>
       </c>
       <c r="I57" s="3">
-        <v>2615100</v>
+        <v>2527500</v>
       </c>
       <c r="J57" s="3">
-        <v>2557500</v>
+        <v>2471900</v>
       </c>
       <c r="K57" s="3"/>
     </row>
@@ -1911,25 +1911,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2036200</v>
+        <v>1968000</v>
       </c>
       <c r="E58" s="3">
-        <v>308400</v>
+        <v>298100</v>
       </c>
       <c r="F58" s="3">
-        <v>2694700</v>
+        <v>2604400</v>
       </c>
       <c r="G58" s="3">
-        <v>288800</v>
+        <v>279100</v>
       </c>
       <c r="H58" s="3">
-        <v>264700</v>
+        <v>255800</v>
       </c>
       <c r="I58" s="3">
-        <v>270200</v>
+        <v>261100</v>
       </c>
       <c r="J58" s="3">
-        <v>12700</v>
+        <v>12300</v>
       </c>
       <c r="K58" s="3"/>
     </row>
@@ -1938,25 +1938,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4898600</v>
+        <v>4734600</v>
       </c>
       <c r="E59" s="3">
-        <v>4653300</v>
+        <v>4497500</v>
       </c>
       <c r="F59" s="3">
-        <v>4329100</v>
+        <v>4184200</v>
       </c>
       <c r="G59" s="3">
-        <v>4291400</v>
+        <v>4147700</v>
       </c>
       <c r="H59" s="3">
-        <v>4387400</v>
+        <v>4240600</v>
       </c>
       <c r="I59" s="3">
-        <v>4736900</v>
+        <v>4578300</v>
       </c>
       <c r="J59" s="3">
-        <v>4185500</v>
+        <v>4045400</v>
       </c>
       <c r="K59" s="3"/>
     </row>
@@ -1965,25 +1965,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9380000</v>
+        <v>9065900</v>
       </c>
       <c r="E60" s="3">
-        <v>7287900</v>
+        <v>7043900</v>
       </c>
       <c r="F60" s="3">
-        <v>9110900</v>
+        <v>8805900</v>
       </c>
       <c r="G60" s="3">
-        <v>6677700</v>
+        <v>6454100</v>
       </c>
       <c r="H60" s="3">
-        <v>7073700</v>
+        <v>6836900</v>
       </c>
       <c r="I60" s="3">
-        <v>7622100</v>
+        <v>7366900</v>
       </c>
       <c r="J60" s="3">
-        <v>6755700</v>
+        <v>6529600</v>
       </c>
       <c r="K60" s="3"/>
     </row>
@@ -1992,25 +1992,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>16600</v>
+        <v>16000</v>
       </c>
       <c r="E61" s="3">
-        <v>1234900</v>
+        <v>1193500</v>
       </c>
       <c r="F61" s="3">
-        <v>33200</v>
+        <v>32100</v>
       </c>
       <c r="G61" s="3">
-        <v>2454900</v>
+        <v>2372700</v>
       </c>
       <c r="H61" s="3">
-        <v>2486700</v>
+        <v>2403400</v>
       </c>
       <c r="I61" s="3">
-        <v>3388500</v>
+        <v>3275100</v>
       </c>
       <c r="J61" s="3">
-        <v>4199600</v>
+        <v>4059000</v>
       </c>
       <c r="K61" s="3"/>
     </row>
@@ -2019,25 +2019,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2601900</v>
+        <v>2514800</v>
       </c>
       <c r="E62" s="3">
-        <v>2829600</v>
+        <v>2734900</v>
       </c>
       <c r="F62" s="3">
-        <v>3507500</v>
+        <v>3390100</v>
       </c>
       <c r="G62" s="3">
-        <v>3837500</v>
+        <v>3709100</v>
       </c>
       <c r="H62" s="3">
-        <v>3365900</v>
+        <v>3253200</v>
       </c>
       <c r="I62" s="3">
-        <v>3430900</v>
+        <v>3316000</v>
       </c>
       <c r="J62" s="3">
-        <v>3773300</v>
+        <v>3647000</v>
       </c>
       <c r="K62" s="3"/>
     </row>
@@ -2127,25 +2127,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>13619300</v>
+        <v>13163300</v>
       </c>
       <c r="E66" s="3">
-        <v>12895800</v>
+        <v>12464000</v>
       </c>
       <c r="F66" s="3">
-        <v>14087500</v>
+        <v>13615900</v>
       </c>
       <c r="G66" s="3">
-        <v>14333700</v>
+        <v>13853800</v>
       </c>
       <c r="H66" s="3">
-        <v>14233700</v>
+        <v>13757200</v>
       </c>
       <c r="I66" s="3">
-        <v>15991000</v>
+        <v>15455700</v>
       </c>
       <c r="J66" s="3">
-        <v>16181600</v>
+        <v>15639900</v>
       </c>
       <c r="K66" s="3"/>
     </row>
@@ -2275,25 +2275,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>25619900</v>
+        <v>24762200</v>
       </c>
       <c r="E72" s="3">
-        <v>24773600</v>
+        <v>23944200</v>
       </c>
       <c r="F72" s="3">
-        <v>23899400</v>
+        <v>23099300</v>
       </c>
       <c r="G72" s="3">
-        <v>24200600</v>
+        <v>23390400</v>
       </c>
       <c r="H72" s="3">
-        <v>24567300</v>
+        <v>23744800</v>
       </c>
       <c r="I72" s="3">
-        <v>24018800</v>
+        <v>23214700</v>
       </c>
       <c r="J72" s="3">
-        <v>23476800</v>
+        <v>22690800</v>
       </c>
       <c r="K72" s="3"/>
     </row>
@@ -2383,25 +2383,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>21387000</v>
+        <v>20671000</v>
       </c>
       <c r="E76" s="3">
-        <v>19742800</v>
+        <v>19081900</v>
       </c>
       <c r="F76" s="3">
-        <v>17690500</v>
+        <v>17098200</v>
       </c>
       <c r="G76" s="3">
-        <v>18449400</v>
+        <v>17831700</v>
       </c>
       <c r="H76" s="3">
-        <v>19425600</v>
+        <v>18775300</v>
       </c>
       <c r="I76" s="3">
-        <v>19721200</v>
+        <v>19061000</v>
       </c>
       <c r="J76" s="3">
-        <v>19120100</v>
+        <v>18480000</v>
       </c>
       <c r="K76" s="3"/>
     </row>
@@ -2469,25 +2469,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1676000</v>
+        <v>1619900</v>
       </c>
       <c r="E81" s="3">
-        <v>1475100</v>
+        <v>1425700</v>
       </c>
       <c r="F81" s="3">
-        <v>572400</v>
+        <v>553200</v>
       </c>
       <c r="G81" s="3">
-        <v>858500</v>
+        <v>829800</v>
       </c>
       <c r="H81" s="3">
-        <v>1736400</v>
+        <v>1678300</v>
       </c>
       <c r="I81" s="3">
-        <v>1662000</v>
+        <v>1606400</v>
       </c>
       <c r="J81" s="3">
-        <v>1035000</v>
+        <v>1000300</v>
       </c>
       <c r="K81" s="3"/>
     </row>
@@ -2509,25 +2509,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1556000</v>
+        <v>1503900</v>
       </c>
       <c r="E83" s="3">
-        <v>1520000</v>
+        <v>1469100</v>
       </c>
       <c r="F83" s="3">
-        <v>1565200</v>
+        <v>1512800</v>
       </c>
       <c r="G83" s="3">
-        <v>1630400</v>
+        <v>1575900</v>
       </c>
       <c r="H83" s="3">
-        <v>1728200</v>
+        <v>1670300</v>
       </c>
       <c r="I83" s="3">
-        <v>1799100</v>
+        <v>1738900</v>
       </c>
       <c r="J83" s="3">
-        <v>1718200</v>
+        <v>1660600</v>
       </c>
       <c r="K83" s="3"/>
     </row>
@@ -2671,25 +2671,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1804100</v>
+        <v>1743700</v>
       </c>
       <c r="E89" s="3">
-        <v>3098600</v>
+        <v>2994800</v>
       </c>
       <c r="F89" s="3">
-        <v>2293200</v>
+        <v>2216500</v>
       </c>
       <c r="G89" s="3">
-        <v>2462600</v>
+        <v>2380200</v>
       </c>
       <c r="H89" s="3">
-        <v>2509600</v>
+        <v>2425500</v>
       </c>
       <c r="I89" s="3">
-        <v>4057100</v>
+        <v>3921300</v>
       </c>
       <c r="J89" s="3">
-        <v>3436900</v>
+        <v>3321900</v>
       </c>
       <c r="K89" s="3"/>
     </row>
@@ -2711,25 +2711,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1295200</v>
+        <v>-1251800</v>
       </c>
       <c r="E91" s="3">
-        <v>-1218400</v>
+        <v>-1177600</v>
       </c>
       <c r="F91" s="3">
-        <v>-1131600</v>
+        <v>-1093700</v>
       </c>
       <c r="G91" s="3">
-        <v>-1481700</v>
+        <v>-1432100</v>
       </c>
       <c r="H91" s="3">
-        <v>-1314900</v>
+        <v>-1270900</v>
       </c>
       <c r="I91" s="3">
-        <v>-1301800</v>
+        <v>-1258200</v>
       </c>
       <c r="J91" s="3">
-        <v>-1421900</v>
+        <v>-1374300</v>
       </c>
       <c r="K91" s="3"/>
     </row>
@@ -2792,25 +2792,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1242200</v>
+        <v>-1200600</v>
       </c>
       <c r="E94" s="3">
-        <v>-1423800</v>
+        <v>-1376200</v>
       </c>
       <c r="F94" s="3">
-        <v>-1067900</v>
+        <v>-1032100</v>
       </c>
       <c r="G94" s="3">
-        <v>-1570300</v>
+        <v>-1517700</v>
       </c>
       <c r="H94" s="3">
-        <v>-1343900</v>
+        <v>-1298900</v>
       </c>
       <c r="I94" s="3">
-        <v>-1133600</v>
+        <v>-1095700</v>
       </c>
       <c r="J94" s="3">
-        <v>-5751000</v>
+        <v>-5558500</v>
       </c>
       <c r="K94" s="3"/>
     </row>
@@ -2832,25 +2832,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-819800</v>
+        <v>-792300</v>
       </c>
       <c r="E96" s="3">
-        <v>-610700</v>
+        <v>-590200</v>
       </c>
       <c r="F96" s="3">
-        <v>-872100</v>
+        <v>-842900</v>
       </c>
       <c r="G96" s="3">
-        <v>-1178100</v>
+        <v>-1138700</v>
       </c>
       <c r="H96" s="3">
-        <v>-1224000</v>
+        <v>-1183000</v>
       </c>
       <c r="I96" s="3">
-        <v>-1119000</v>
+        <v>-1081600</v>
       </c>
       <c r="J96" s="3">
-        <v>-1125400</v>
+        <v>-1087700</v>
       </c>
       <c r="K96" s="3"/>
     </row>
@@ -2940,25 +2940,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1008800</v>
+        <v>-975000</v>
       </c>
       <c r="E100" s="3">
-        <v>-1836800</v>
+        <v>-1775300</v>
       </c>
       <c r="F100" s="3">
-        <v>-1260300</v>
+        <v>-1218100</v>
       </c>
       <c r="G100" s="3">
-        <v>-1597900</v>
+        <v>-1544400</v>
       </c>
       <c r="H100" s="3">
-        <v>-2437700</v>
+        <v>-2356100</v>
       </c>
       <c r="I100" s="3">
-        <v>-2339000</v>
+        <v>-2260700</v>
       </c>
       <c r="J100" s="3">
-        <v>2443600</v>
+        <v>2361800</v>
       </c>
       <c r="K100" s="3"/>
     </row>
@@ -2967,25 +2967,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>177000</v>
+        <v>171100</v>
       </c>
       <c r="E101" s="3">
-        <v>118900</v>
+        <v>114900</v>
       </c>
       <c r="F101" s="3">
         <v>-300</v>
       </c>
       <c r="G101" s="3">
-        <v>-35300</v>
+        <v>-34100</v>
       </c>
       <c r="H101" s="3">
-        <v>-110000</v>
+        <v>-106400</v>
       </c>
       <c r="I101" s="3">
-        <v>44900</v>
+        <v>43400</v>
       </c>
       <c r="J101" s="3">
-        <v>-153000</v>
+        <v>-147900</v>
       </c>
       <c r="K101" s="3"/>
     </row>
@@ -2994,25 +2994,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-269900</v>
+        <v>-260900</v>
       </c>
       <c r="E102" s="3">
-        <v>-43200</v>
+        <v>-41800</v>
       </c>
       <c r="F102" s="3">
-        <v>-35200</v>
+        <v>-34100</v>
       </c>
       <c r="G102" s="3">
-        <v>-740800</v>
+        <v>-716000</v>
       </c>
       <c r="H102" s="3">
-        <v>-1382000</v>
+        <v>-1335800</v>
       </c>
       <c r="I102" s="3">
-        <v>629400</v>
+        <v>608400</v>
       </c>
       <c r="J102" s="3">
-        <v>-23500</v>
+        <v>-22700</v>
       </c>
       <c r="K102" s="3"/>
     </row>
